--- a/Mifos Automation Excels/Client/2503-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2503-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="750" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="750" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="59">
   <si>
     <t>#</t>
   </si>
@@ -165,34 +165,40 @@
     <t>$ 5,000</t>
   </si>
   <si>
-    <t>$ 73.97</t>
-  </si>
-  <si>
-    <t>$ 907.3</t>
-  </si>
-  <si>
-    <t>$ 833.33</t>
-  </si>
-  <si>
-    <t>$ 852.51</t>
-  </si>
-  <si>
-    <t>$ 19.18</t>
-  </si>
-  <si>
-    <t>L33</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
-    <t>$ 183.22</t>
-  </si>
-  <si>
     <t>Accrual</t>
+  </si>
+  <si>
+    <t>L3782</t>
+  </si>
+  <si>
+    <t>$ 50</t>
+  </si>
+  <si>
+    <t>$ 769.23</t>
+  </si>
+  <si>
+    <t>$ 819.23</t>
+  </si>
+  <si>
+    <t>L3788</t>
+  </si>
+  <si>
+    <t>$ 854.48</t>
+  </si>
+  <si>
+    <t>L3789</t>
+  </si>
+  <si>
+    <t>$ 42.3</t>
+  </si>
+  <si>
+    <t>$ 812.18</t>
+  </si>
+  <si>
+    <t>$ 520.02</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -331,21 +337,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,7 +827,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,7 +1577,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>69</v>
+        <v>3676</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -1593,7 +1611,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>68</v>
+        <v>3673</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -1627,7 +1645,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>67</v>
+        <v>3671</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -1661,25 +1679,25 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>47</v>
+        <v>3677</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="7">
-        <v>42036</v>
+        <v>42005</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E5" s="6">
-        <v>183.22</v>
+        <v>520.02</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>183.22</v>
+        <v>520.02</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1695,7 +1713,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>66</v>
+        <v>3669</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -1737,7 +1755,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,7 +1807,7 @@
       <c r="B2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="15">
         <v>42005</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -1816,7 +1834,7 @@
       <c r="B3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>42005</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -1843,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,96 +1910,87 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>151</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="19">
+        <v>6874</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="20">
+        <v>42036</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>6875</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="20">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18" t="s">
+      <c r="H3" s="18"/>
+      <c r="I3" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>6876</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="20">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>152</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="E4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>154</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="7">
-        <v>42050</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
+      <c r="H4" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2099,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:P7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2119,7 +2128,7 @@
     <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -2148,96 +2157,87 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>151</v>
-      </c>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>6887</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="22">
         <v>42064</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>6888</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="22">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>152</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="H3" s="25"/>
+      <c r="I3" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>6889</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C4" s="22">
         <v>42064</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="D4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>154</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="15">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="H4" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2248,105 +2248,103 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="19" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="7.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>40</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="23">
+        <v>6890</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="C2" s="24">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="F2" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>6891</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="24">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>41</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="7">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="F3" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>55</v>
+      <c r="I3" s="27" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/2503-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2503-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="750" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="750" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -189,23 +194,23 @@
     <t>$ 854.48</t>
   </si>
   <si>
-    <t>L3789</t>
-  </si>
-  <si>
     <t>$ 42.3</t>
   </si>
   <si>
     <t>$ 812.18</t>
   </si>
   <si>
-    <t>$ 520.02</t>
+    <t>L123</t>
+  </si>
+  <si>
+    <t>$ 520.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +231,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -305,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -339,9 +352,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -355,24 +365,50 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -421,7 +457,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,9 +490,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,6 +542,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1910,87 +1980,87 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+      <c r="A2" s="18">
         <v>6874</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="19">
         <v>42036</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
+      <c r="A3" s="18">
         <v>6875</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>42036</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>6876</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="19">
         <v>42036</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2158,86 +2228,86 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>6887</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="21">
         <v>42064</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="22"/>
+      <c r="I2" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>6888</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42064</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>6888</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>6889</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C4" s="21">
         <v>42064</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
-        <v>6889</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="22">
-        <v>42064</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2249,7 +2319,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,83 +2337,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>6890</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="6">
+        <v>328</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="7">
         <v>42005</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="23" t="s">
+      <c r="D2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>6891</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="6">
+        <v>329</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="7">
         <v>42005</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>58</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/2503-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2503-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="750" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="750" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -894,10 +894,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,12 +914,13 @@
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -959,17 +960,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -994,9 +996,10 @@
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1034,14 +1037,15 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -1077,14 +1081,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
         <v>833.33</v>
       </c>
-      <c r="P4" s="6">
+      <c r="Q4" s="6">
         <v>21.15</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7">
@@ -1109,9 +1114,10 @@
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
-      <c r="P5" s="6"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1147,14 +1153,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>763.4</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1190,14 +1197,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>847.59</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1233,14 +1241,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>832.11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1276,14 +1285,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>824.47</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1319,14 +1329,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>816.84</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1362,14 +1373,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>809.2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1405,14 +1417,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>801.57</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1448,14 +1461,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>793.94</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1491,14 +1505,15 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>786.3</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -1534,14 +1549,15 @@
       <c r="M15" s="6">
         <v>0</v>
       </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>778.67</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -1577,10 +1593,11 @@
       <c r="M16" s="6">
         <v>0</v>
       </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
+      <c r="N16" s="6"/>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
         <v>771.07</v>
       </c>
     </row>
@@ -2318,7 +2335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/2503-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2503-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-ADD-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="750" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="750" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -203,13 +198,13 @@
     <t>L123</t>
   </si>
   <si>
-    <t>$ 520.02</t>
+    <t>$ 520.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -318,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -368,6 +363,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,7 +455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,26 +488,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -542,23 +523,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -896,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -2335,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2404,7 +2368,7 @@
       <c r="G2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="24" t="s">
         <v>58</v>
       </c>
       <c r="I2" s="6"/>
@@ -2432,11 +2396,12 @@
         <v>36</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="24" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>